--- a/matrix/executed/windows/server list/server_list.xlsx
+++ b/matrix/executed/windows/server list/server_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9643340-46E4-42BF-89BA-87A3071F63AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676D8E1-2332-4AA3-8D1F-C5DC8FE850C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>T0028</t>
+  </si>
+  <si>
+    <t>T0029</t>
   </si>
 </sst>
 </file>
@@ -315,15 +318,151 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -354,7 +493,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -364,7 +503,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E2FC2-A621-4FFF-B77A-4982902821FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -421,7 +560,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -431,7 +570,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADC553A-8397-4635-99DF-B6C49D7338FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -488,7 +627,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -498,7 +637,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4908E06-EBF8-4443-8570-14DD9AE80244}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -555,7 +694,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -565,7 +704,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BD37B8-7A7E-4DDB-83B2-3D9E94D869ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -622,7 +761,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -632,7 +771,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC87F95-53EE-4D09-AE1F-FD907B25D1DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -689,7 +828,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -699,7 +838,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B0A2B-993E-4417-8432-1C679D6CFEFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -756,7 +895,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -766,7 +905,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C99E86-FAF1-4B2A-8EAD-3468E1242181}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -823,7 +962,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -833,7 +972,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E369736-97E1-45DA-8793-2BB492DCD40B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -890,7 +1029,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -900,7 +1039,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BDE244-EF6F-43D6-A6FE-17AFB456DBE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -957,7 +1096,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -967,7 +1106,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0150890-049D-4382-A332-60B19F29802A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1024,7 +1163,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1034,7 +1173,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA11BD0-960E-4E2D-B924-1AB001EB08CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1091,7 +1230,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1101,7 +1240,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF4836A-F8B0-4FFD-8137-4E323E3B6AC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,7 +1297,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1168,7 +1307,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D1847-6A60-43A5-87AF-9925986C2274}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,7 +1364,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1235,7 +1374,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD4E27-8C0E-4035-988B-AEDE9E66A037}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1292,7 +1431,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1302,7 +1441,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56E0702-A193-4BE1-ACFD-24C302303449}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1359,7 +1498,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1369,7 +1508,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2C8EA4-A54F-4626-A887-B352A365912E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1426,7 +1565,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1436,7 +1575,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7850F003-EC08-410D-AF71-FA2BB5F80853}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1632,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1503,7 +1642,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0550E44D-8CE6-4570-92C9-9D4A12D6DEC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,7 +1699,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1570,7 +1709,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD1CE06-3F01-4ABA-937A-5789F769FC4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1627,7 +1766,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1637,7 +1776,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF13502-6E9F-450E-B1D9-30F7E9841B3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1694,7 +1833,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1704,7 +1843,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E1D286-C812-4EAE-BDED-20F44B94C6D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1761,7 +1900,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1771,7 +1910,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D82D3-00E0-4917-A42E-E0AC28ECF2C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1828,7 +1967,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1838,7 +1977,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F5CBC-8708-4826-96BF-822EF84849DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1895,7 +2034,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1905,7 +2044,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC88B540-559F-4794-B3DB-7ADC1A502BB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1962,7 +2101,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1972,7 +2111,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BD023B-91FA-4880-8C6D-54FEC8A7C0F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2029,7 +2168,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2039,7 +2178,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E02955-EE02-44FA-B1E4-C0CF14C2E8F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2096,7 +2235,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2106,7 +2245,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4174C7C4-55DB-4007-8375-D760B993A9C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2163,7 +2302,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2173,7 +2312,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC250CB-8D6A-4602-BDAE-73074D636F71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2230,7 +2369,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2240,7 +2379,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6389F20-A16A-452E-AD12-432038E573A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2297,7 +2436,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2307,7 +2446,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EA0468-1949-47DC-9B90-1FC9C7ED1637}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2364,7 +2503,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C21A34-D0A3-4073-94F8-CD616044394A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2559,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2430,7 +2569,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8587B-23BC-494C-A588-148A759D7BFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2487,7 +2626,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2497,7 +2636,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548497CA-E3A9-4C48-A793-C7F452BC1512}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2538,6 +2677,2170 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108ADAE0-6593-4992-8F1B-7E14D179D685}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78171B4D-FC96-4E54-A5DC-9293AFC12DBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557DA3D9-9B01-4B30-8F4A-35885A929698}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FF5F24-DDCA-4E52-8A8B-9574A6B45901}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22B9146-69EC-4B53-B075-56D6FB39520B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D47183F-A189-4759-8D8D-A7C0F1F8CE9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC44E621-5BFA-4072-B235-32210DBDF6D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A356D726-387A-453D-AA7E-7440C47AFBB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E684EB4-2DB9-4E15-9E1D-491CEC669A9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB946B5-2E6E-4400-966E-089626809503}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C854A4-D72B-44AC-A078-8B6659CFE549}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AD4E15-E15E-40CB-BA13-9DF28AE71B91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0DD1D1-A89D-432A-B07A-CAC7C4A4683B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486C4F15-E5C0-4D45-9CEA-A18E18A1C8A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8B14A0-BBC4-4C69-A0C1-1C688B646EFF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD81844-54AD-4736-A6BD-6A10A3F61870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3868A18C-8E38-46EE-B307-CB9F59348592}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD14A5B5-A734-4165-B530-C643728344E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DD30E7-222B-4351-8B8C-E76A0A6AF01E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485172B6-74EC-4BE1-8FEF-B991154307C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7765AA6D-1D90-4C54-BE33-9C7DD851680F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B61CD1-C921-4C26-8E91-F666B8EAE829}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F68F22-4091-4245-B181-6EFECA26C317}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF8F866-874E-4809-8946-C01ECE878D6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3B9EA9-3F74-4F70-9C25-EBEB6DAFA087}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A29B76-D035-4A70-9995-9FE501203956}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2FFE09-6E91-4AD1-BDB6-B167D7523220}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A4F6B1-256B-4DCA-AC74-C54781B3F63C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF03A7C-4647-4CDC-BA2C-9FCBE27AD8C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F497433D-1A03-4394-8AAE-CE8A5AE8DEB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD95910-54EC-4B18-8A17-E395692EDF31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4362450" y="628650"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B7159D-852A-441E-830B-BE039EE43699}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D6C627-434A-4D72-BD47-A189EAE32AB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18DD20F-A3FE-4023-AA6F-BE978555CA78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAD612A-22DD-4012-A945-0D9F18659CD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2807,10 +5110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O7"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,10 +5244,149 @@
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3657,6 +6099,754 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId35" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId36" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId37" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId38" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId39" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId40" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId41" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId42" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId43" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId44" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId45" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId46" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId47" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId48" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId49" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId50" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId51" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId52" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId53" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId54" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId55" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId56" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId57" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId58" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId59" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId60" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId61" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId62" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId63" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId64" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId65" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId66" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId67" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId68" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
